--- a/Bill.xlsx
+++ b/Bill.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>SRI UMADEVI LORRY SERVICE</t>
   </si>
@@ -145,16 +145,13 @@
     <t>COMPANY</t>
   </si>
   <si>
-    <t>TNEB</t>
-  </si>
-  <si>
-    <t>PARAMAKUDI</t>
-  </si>
-  <si>
-    <t>SENTHIL INDUSTRIES</t>
-  </si>
-  <si>
-    <t>SALEM</t>
+    <t>SULS</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>MADURAI</t>
   </si>
 </sst>
 </file>
@@ -463,121 +460,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,15 +745,17 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1">
-            <v>2106</v>
+            <v>2115</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="A2"/>
+          <cell r="A2">
+            <v>1234</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>SENTHIL_INDUSTRIES</v>
+            <v>SRI_KRISHNA_ENTERPRISES</v>
           </cell>
         </row>
         <row r="4">
@@ -769,42 +768,42 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>2020-02-21</v>
+            <v>2020-04-29</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>600</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1097,40 +1096,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1138,31 +1137,31 @@
       </c>
       <c r="B3" s="3">
         <f>Q7</f>
-        <v>2106</v>
+        <v>2115</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="42">
         <v>8675854670</v>
       </c>
-      <c r="N3" s="64"/>
+      <c r="N3" s="43"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1171,17 +1170,17 @@
       </c>
       <c r="B4" s="7">
         <f>Q8</f>
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1191,61 +1190,61 @@
         <v>27</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="65" t="str">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="44" t="str">
         <f>Q3</f>
-        <v>SENTHIL INDUSTRIES</v>
-      </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+        <v>SULS</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="11"/>
       <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="66" t="str">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="45" t="str">
         <f>Q4</f>
-        <v>TNEB</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+        <v>CHENNAI</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="10"/>
       <c r="P6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1254,8 +1253,8 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -1268,28 +1267,28 @@
       </c>
       <c r="Q7" s="1">
         <f>[1]Worksheet!A1</f>
-        <v>2106</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49" t="str">
+      <c r="G8" s="30"/>
+      <c r="H8" s="46" t="str">
         <f>Q9</f>
         <v>TN-30-L-4466</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
@@ -1298,26 +1297,26 @@
       </c>
       <c r="Q8" s="27">
         <f>[1]Worksheet!A2</f>
-        <v>0</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="8"/>
       <c r="F9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="50" t="str">
+      <c r="H9" s="47" t="str">
         <f>Q10</f>
-        <v>2020-02-21</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+        <v>2020-04-29</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="21"/>
@@ -1330,24 +1329,24 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="11"/>
       <c r="F10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="51" t="str">
+      <c r="H10" s="48" t="str">
         <f>Q5</f>
-        <v>PARAMAKUDI</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+        <v>MADURAI</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="21"/>
@@ -1356,26 +1355,26 @@
       </c>
       <c r="Q10" s="27" t="str">
         <f>[1]Worksheet!A6</f>
-        <v>2020-02-21</v>
+        <v>2020-04-29</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="10"/>
       <c r="F11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="52" t="str">
+      <c r="H11" s="49" t="str">
         <f>Q6</f>
-        <v>SALEM</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
+        <v>CHENNAI</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="10"/>
@@ -1384,7 +1383,7 @@
       </c>
       <c r="Q11" s="27">
         <f>[1]Worksheet!A7</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,8 +1392,8 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1404,219 +1403,219 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="45" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="45" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="25"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="42"/>
+      <c r="N13" s="56"/>
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="27">
         <f>[1]Worksheet!A8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
       <c r="J14" s="26"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
       <c r="P14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1">
         <f>[1]Worksheet!A9</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="40" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="39">
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="66">
         <f>Q11</f>
-        <v>100</v>
-      </c>
-      <c r="N15" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="66"/>
       <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="1">
         <f>[1]Worksheet!A10</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="40" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="39">
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="66">
         <f t="shared" ref="M16:M21" si="0">Q13</f>
-        <v>100</v>
-      </c>
-      <c r="N16" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="66"/>
       <c r="P16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="1">
         <f>[1]Worksheet!A11</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="40" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="39">
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="66">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N17" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="66"/>
       <c r="P17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="1">
         <f>[1]Worksheet!A12</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="40" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="39">
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="66">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N18" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="66"/>
       <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="1">
         <f>[1]Worksheet!A13</f>
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="40" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="39">
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="66">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N19" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="66"/>
       <c r="P19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q19" s="27" t="str">
         <f>[1]Worksheet!A3</f>
-        <v>SENTHIL_INDUSTRIES</v>
+        <v>SRI_KRISHNA_ENTERPRISES</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="40" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="39">
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="66">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N20" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="66"/>
       <c r="P20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1626,41 +1625,41 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="38" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39">
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="N21" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="66"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
@@ -1720,12 +1719,12 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1805,33 +1804,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:I14"/>
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="A15:D22"/>
     <mergeCell ref="E15:F22"/>
@@ -1847,6 +1819,33 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
